--- a/W_FRAMEWORK/medical/Medical.xlsx
+++ b/W_FRAMEWORK/medical/Medical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\W_Missionstemplate\W_FRAMEWORK\medical\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -648,131 +648,131 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30:P30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,88 +1068,88 @@
   <sheetData>
     <row r="1" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="10" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10" t="s">
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="11"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="48"/>
     </row>
     <row r="3" spans="1:19" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14" t="s">
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="13" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="31"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="45" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="24" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="45" t="s">
+      <c r="L4" s="40"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="24" t="s">
+      <c r="O4" s="22"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="32"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="41"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1158,31 +1158,31 @@
       <c r="C5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="41" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="25" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="41" t="s">
+      <c r="L5" s="25"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="25" t="s">
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="33"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="26"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1191,31 +1191,31 @@
       <c r="C6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="41" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="25" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="41" t="s">
+      <c r="L6" s="25"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="42"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="25" t="s">
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="33"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="26"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1224,31 +1224,31 @@
       <c r="C7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="33"/>
+      <c r="E7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1257,31 +1257,31 @@
       <c r="C8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="43">
         <v>1800</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="38">
+      <c r="F8" s="25"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="13">
         <v>1800</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="25">
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="24">
         <v>1800</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="38">
+      <c r="L8" s="25"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="13">
         <v>1800</v>
       </c>
-      <c r="O8" s="39"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="25">
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="24">
         <v>1800</v>
       </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="33"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="26"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1290,31 +1290,31 @@
       <c r="C9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="33"/>
+      <c r="E9" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="25"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1323,31 +1323,31 @@
       <c r="C10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="43">
         <v>1</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="38">
+      <c r="F10" s="25"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="13">
         <v>0.8</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="25">
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="24">
         <v>1</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="38">
+      <c r="L10" s="25"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="13">
         <v>1.2</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="35">
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="34">
         <v>1.5</v>
       </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="37"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="36"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1356,157 +1356,157 @@
       <c r="C11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="43">
         <v>1</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="38">
+      <c r="F11" s="25"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="13">
         <v>1</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="25">
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="24">
         <v>1</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="38">
+      <c r="L11" s="25"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="13">
         <v>1</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="25">
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="24">
         <v>1</v>
       </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="33"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="26"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="33"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="38" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="25" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="38" t="s">
+      <c r="L13" s="25"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="25" t="s">
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="19"/>
-      <c r="S13" s="33"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="33"/>
+      <c r="E14" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="25"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="25"/>
+      <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="25" t="s">
+      <c r="E15" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="25"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="33"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="33"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1515,31 +1515,31 @@
       <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="43">
         <v>0.85</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="38">
+      <c r="F17" s="25"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="24">
         <v>1</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="25">
+      <c r="L17" s="25"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="24">
         <v>1</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="38">
-        <v>1</v>
-      </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="25">
-        <v>1</v>
-      </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="33"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="26"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1548,31 +1548,31 @@
       <c r="C18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="43">
         <v>1</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="38">
+      <c r="F18" s="25"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="13">
         <v>1</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="25">
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="24">
         <v>1</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="38">
+      <c r="L18" s="25"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="13">
         <v>1</v>
       </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="25">
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="24">
         <v>1</v>
       </c>
-      <c r="R18" s="19"/>
-      <c r="S18" s="33"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1581,68 +1581,68 @@
       <c r="C19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="42"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R19" s="19"/>
-      <c r="S19" s="33"/>
+      <c r="E19" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="25"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19" s="25"/>
+      <c r="S19" s="26"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="33"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="26"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="33"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="26"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1651,31 +1651,31 @@
       <c r="C22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="38" t="s">
+      <c r="F22" s="25"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="25" t="s">
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="38" t="s">
+      <c r="L22" s="25"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="25" t="s">
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="19"/>
-      <c r="S22" s="33"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="26"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1684,31 +1684,31 @@
       <c r="C23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="38" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="42"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R23" s="19"/>
-      <c r="S23" s="33"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="25"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" s="25"/>
+      <c r="S23" s="26"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1717,49 +1717,49 @@
       <c r="C24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R24" s="19"/>
-      <c r="S24" s="33"/>
+      <c r="E24" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="25"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="25"/>
+      <c r="S24" s="26"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="33"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="26"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1768,31 +1768,31 @@
       <c r="C26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="25" t="s">
+      <c r="E26" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="O26" s="39"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R26" s="19"/>
-      <c r="S26" s="33"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" s="25"/>
+      <c r="S26" s="26"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1801,31 +1801,31 @@
       <c r="C27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="41" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="25"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O27" s="42"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="25" t="s">
+      <c r="O27" s="11"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="R27" s="19"/>
-      <c r="S27" s="33"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1834,31 +1834,31 @@
       <c r="C28" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="38" t="s">
+      <c r="F28" s="25"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="25" t="s">
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="38" t="s">
+      <c r="L28" s="25"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="25" t="s">
+      <c r="O28" s="14"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="R28" s="19"/>
-      <c r="S28" s="33"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1867,49 +1867,49 @@
       <c r="C29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="38" t="s">
+      <c r="F29" s="25"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="25" t="s">
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="38" t="s">
+      <c r="L29" s="25"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="25" t="s">
+      <c r="O29" s="14"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="R29" s="19"/>
-      <c r="S29" s="33"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="26"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="33"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1918,31 +1918,31 @@
       <c r="C31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="41" t="s">
+      <c r="F31" s="25"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="41" t="s">
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O31" s="42"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="25" t="s">
+      <c r="O31" s="11"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="R31" s="19"/>
-      <c r="S31" s="33"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1954,31 +1954,31 @@
       <c r="D32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="O32" s="42"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="25" t="s">
+      <c r="E32" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="25"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="11"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="R32" s="19"/>
-      <c r="S32" s="33"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="26"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1987,31 +1987,31 @@
       <c r="C33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="38" t="s">
+      <c r="F33" s="25"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="25" t="s">
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="41" t="s">
+      <c r="L33" s="25"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="O33" s="42"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="25" t="s">
+      <c r="O33" s="11"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="R33" s="19"/>
-      <c r="S33" s="33"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="26"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2020,49 +2020,49 @@
       <c r="C34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="41" t="s">
+      <c r="F34" s="32"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="34" t="s">
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="L34" s="27"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="41" t="s">
+      <c r="L34" s="32"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O34" s="42"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="34" t="s">
+      <c r="O34" s="11"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="R34" s="27"/>
-      <c r="S34" s="44"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="33"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="33"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2071,31 +2071,31 @@
       <c r="C36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="38" t="s">
+      <c r="F36" s="25"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="25" t="s">
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="38" t="s">
+      <c r="L36" s="25"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R36" s="19"/>
-      <c r="S36" s="33"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R36" s="25"/>
+      <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2107,68 +2107,68 @@
       <c r="D37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="38" t="s">
+      <c r="F37" s="25"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="25" t="s">
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="O37" s="42"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="33"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="11"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R37" s="25"/>
+      <c r="S37" s="26"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="33"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="33"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -2177,31 +2177,31 @@
       <c r="C40" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R40" s="19"/>
-      <c r="S40" s="33"/>
+      <c r="E40" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L40" s="25"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O40" s="14"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40" s="25"/>
+      <c r="S40" s="26"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2213,31 +2213,31 @@
       <c r="D41" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="43">
         <v>600</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="38">
-        <v>360</v>
-      </c>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="25">
+      <c r="F41" s="25"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="13">
         <v>600</v>
       </c>
-      <c r="L41" s="19"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="38">
-        <v>480</v>
-      </c>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="25">
-        <v>1020</v>
-      </c>
-      <c r="R41" s="19"/>
-      <c r="S41" s="33"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="24">
+        <v>600</v>
+      </c>
+      <c r="L41" s="25"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="13">
+        <v>600</v>
+      </c>
+      <c r="O41" s="14"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="24">
+        <v>600</v>
+      </c>
+      <c r="R41" s="25"/>
+      <c r="S41" s="26"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -2249,48 +2249,48 @@
       <c r="D42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="48" t="s">
+      <c r="F42" s="28"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="49"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="30" t="s">
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="48" t="s">
+      <c r="L42" s="28"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O42" s="49"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="30" t="s">
+      <c r="O42" s="17"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="R42" s="13"/>
-      <c r="S42" s="31"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="29"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
@@ -2549,29 +2549,169 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="H42:J42"/>
@@ -2596,169 +2736,29 @@
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/W_FRAMEWORK/medical/Medical.xlsx
+++ b/W_FRAMEWORK/medical/Medical.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
   <si>
     <t>Medicsystem A</t>
   </si>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>Medical Facility</t>
+  </si>
+  <si>
+    <t>Allow Defibrillator</t>
+  </si>
+  <si>
+    <t>Condition Defibrillator</t>
+  </si>
+  <si>
+    <t>anytime</t>
+  </si>
+  <si>
+    <t>Defibrillator needs medic</t>
   </si>
 </sst>
 </file>
@@ -377,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -633,11 +645,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -773,6 +822,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:J17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1579,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="37"/>
       <c r="H17" s="13">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
@@ -1531,7 +1589,7 @@
       <c r="L17" s="25"/>
       <c r="M17" s="37"/>
       <c r="N17" s="13">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="15"/>
@@ -2048,112 +2106,124 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="37"/>
+      <c r="C35" s="7"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="10"/>
       <c r="I35" s="11"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="37"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="54"/>
       <c r="N35" s="10"/>
       <c r="O35" s="11"/>
       <c r="P35" s="12"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="26"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="54"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="13" t="s">
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="24" t="s">
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="53"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L36" s="25"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="13" t="s">
+      <c r="O36" s="11"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="14"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="R36" s="25"/>
-      <c r="S36" s="26"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="54"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="L37" s="25"/>
-      <c r="M37" s="37"/>
+        <v>47</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="53"/>
+      <c r="M37" s="54"/>
       <c r="N37" s="10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="O37" s="11"/>
       <c r="P37" s="12"/>
-      <c r="Q37" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="R37" s="25"/>
-      <c r="S37" s="26"/>
+      <c r="Q37" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="R37" s="53"/>
+      <c r="S37" s="54"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E38" s="43"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="10"/>
+      <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="I38" s="11"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="10"/>
+      <c r="K38" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" s="53"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="O38" s="11"/>
       <c r="P38" s="12"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="26"/>
+      <c r="Q38" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="R38" s="53"/>
+      <c r="S38" s="54"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="E39" s="43"/>
       <c r="F39" s="25"/>
       <c r="G39" s="37"/>
@@ -2171,14 +2241,14 @@
       <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>1</v>
+      <c r="A40" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="37"/>
@@ -2198,167 +2268,205 @@
       <c r="O40" s="14"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R40" s="25"/>
       <c r="S40" s="26"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>2</v>
+      <c r="A41" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="43">
-        <v>600</v>
+        <v>74</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="37"/>
-      <c r="H41" s="13">
-        <v>600</v>
+      <c r="H41" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="24">
-        <v>600</v>
+      <c r="K41" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="L41" s="25"/>
       <c r="M41" s="37"/>
-      <c r="N41" s="13">
-        <v>600</v>
-      </c>
-      <c r="O41" s="14"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="24">
-        <v>600</v>
+      <c r="N41" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="R41" s="25"/>
       <c r="S41" s="26"/>
     </row>
-    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E42" s="43"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="26"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="26"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="25"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="25"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" s="14"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R44" s="25"/>
+      <c r="S44" s="26"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="43">
+        <v>600</v>
+      </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="13">
+        <v>360</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="24">
+        <v>600</v>
+      </c>
+      <c r="L45" s="25"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="13">
+        <v>480</v>
+      </c>
+      <c r="O45" s="14"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="24">
+        <v>1020</v>
+      </c>
+      <c r="R45" s="25"/>
+      <c r="S45" s="26"/>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E46" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="16" t="s">
+      <c r="F46" s="28"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="27" t="s">
+      <c r="I46" s="17"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L42" s="28"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="16" t="s">
+      <c r="L46" s="28"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O42" s="17"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="27" t="s">
+      <c r="O46" s="17"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="R42" s="28"/>
-      <c r="S42" s="29"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="29"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E48" s="8"/>
@@ -2429,72 +2537,72 @@
       <c r="S51" s="8"/>
     </row>
     <row r="52" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
     </row>
     <row r="53" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
     </row>
     <row r="54" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
     </row>
     <row r="55" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
     </row>
     <row r="56" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E56" s="9"/>
@@ -2547,8 +2655,92 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
     </row>
+    <row r="59" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+    </row>
+    <row r="60" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+    </row>
+    <row r="61" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+    </row>
+    <row r="62" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="210">
+  <mergeCells count="230">
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N38:P38"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="E3:G3"/>
@@ -2561,7 +2753,7 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E47:G47"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K5:M5"/>
@@ -2569,11 +2761,11 @@
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
     <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E43:G43"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="E30:G30"/>
@@ -2604,9 +2796,9 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
@@ -2618,11 +2810,15 @@
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:G26"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
     <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -2630,10 +2826,10 @@
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="K29:M29"/>
@@ -2678,18 +2874,18 @@
     <mergeCell ref="Q23:S23"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="Q34:S34"/>
     <mergeCell ref="Q39:S39"/>
     <mergeCell ref="Q40:S40"/>
     <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="Q37:S37"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
@@ -2712,10 +2908,10 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="N5:P5"/>
@@ -2723,11 +2919,11 @@
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
     <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H30:J30"/>
@@ -2748,17 +2944,17 @@
     <mergeCell ref="N24:P24"/>
     <mergeCell ref="N25:P25"/>
     <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N34:P34"/>
     <mergeCell ref="N39:P39"/>
     <mergeCell ref="N40:P40"/>
     <mergeCell ref="N41:P41"/>
     <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N38:P38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
